--- a/Luban/Config/Datas/weapons.xlsx
+++ b/Luban/Config/Datas/weapons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B35286-DB9B-4F80-80AB-C656F7B82076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D11E6-FA7E-4E66-9CFD-7850F15F7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -159,27 +159,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Longs_RunFwd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longs_WalkFwd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walk_F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run_F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longs_Idle1</t>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础动画组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animGroupId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -588,30 +576,31 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="8.21875" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" customWidth="1"/>
+    <col min="11" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.46484375" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" customWidth="1"/>
+    <col min="20" max="20" width="14.53125" customWidth="1"/>
+    <col min="21" max="21" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -669,12 +658,8 @@
       <c r="S1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
@@ -693,7 +678,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -735,7 +720,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -791,14 +776,10 @@
         <v>6</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
@@ -817,7 +798,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -859,7 +840,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -890,7 +871,9 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="7"/>
       <c r="R5"/>
-      <c r="S5"/>
+      <c r="S5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
@@ -911,7 +894,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
@@ -963,51 +946,47 @@
       <c r="R6">
         <v>20004</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="S6" s="5">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J13" s="3"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J14" s="3"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>

--- a/Luban/Config/Datas/weapons.xlsx
+++ b/Luban/Config/Datas/weapons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D11E6-FA7E-4E66-9CFD-7850F15F7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BA1B2-15D4-478C-8869-5EEBC77E7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -168,6 +168,68 @@
   </si>
   <si>
     <t>animGroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Attack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Attack2</t>
+  </si>
+  <si>
+    <t>LS_Attack3</t>
+  </si>
+  <si>
+    <t>空手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒手打击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Attack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Attack2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Attack3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Defense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Step</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Jump</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_JumpLand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Hit_Fwd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Hit_Bwd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Spare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_Death_L</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -295,6 +357,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="标题 4" xfId="3" builtinId="19"/>
@@ -575,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -588,10 +653,11 @@
     <col min="6" max="6" width="8.19921875" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.86328125" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="8.46484375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" customWidth="1"/>
+    <col min="12" max="12" width="12.53125" customWidth="1"/>
+    <col min="13" max="13" width="11.06640625" customWidth="1"/>
     <col min="14" max="14" width="9.796875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
@@ -743,37 +809,37 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>31</v>
@@ -898,7 +964,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
@@ -913,38 +979,38 @@
       <c r="G6">
         <v>20003</v>
       </c>
-      <c r="H6">
-        <v>20000</v>
-      </c>
-      <c r="I6">
-        <v>20001</v>
-      </c>
-      <c r="J6">
-        <v>20002</v>
-      </c>
-      <c r="K6">
-        <v>20009</v>
-      </c>
-      <c r="L6">
-        <v>20016</v>
-      </c>
-      <c r="M6">
-        <v>20005</v>
-      </c>
-      <c r="N6">
-        <v>20044</v>
-      </c>
-      <c r="O6" s="4">
-        <v>20007</v>
-      </c>
-      <c r="P6" s="4">
-        <v>20008</v>
-      </c>
-      <c r="Q6">
-        <v>20006</v>
-      </c>
-      <c r="R6">
-        <v>20004</v>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="S6" s="5">
         <v>2</v>
@@ -953,8 +1019,60 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>20003</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O8" s="4"/>

--- a/Luban/Config/Datas/weapons.xlsx
+++ b/Luban/Config/Datas/weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BA1B2-15D4-478C-8869-5EEBC77E7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D997F-222B-4263-8255-DE20A135C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>jumpLand1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>localMotion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -190,14 +186,6 @@
   </si>
   <si>
     <t>Base_Attack1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_Attack2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_Attack3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -638,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -650,28 +638,27 @@
     <col min="2" max="3" width="10.19921875" customWidth="1"/>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" customWidth="1"/>
-    <col min="12" max="12" width="12.53125" customWidth="1"/>
-    <col min="13" max="13" width="11.06640625" customWidth="1"/>
-    <col min="14" max="14" width="9.796875" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="19" max="19" width="11.73046875" customWidth="1"/>
-    <col min="20" max="20" width="14.53125" customWidth="1"/>
-    <col min="21" max="21" width="14.46484375" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11.53125" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" customWidth="1"/>
+    <col min="12" max="12" width="11.06640625" customWidth="1"/>
+    <col min="13" max="13" width="9.796875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="18" max="18" width="11.73046875" customWidth="1"/>
+    <col min="19" max="19" width="14.53125" customWidth="1"/>
+    <col min="20" max="20" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>15</v>
@@ -686,46 +673,44 @@
         <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>27</v>
+      <c r="Q1" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="S1" s="8"/>
       <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
@@ -742,9 +727,8 @@
       <c r="AI1"/>
       <c r="AJ1"/>
       <c r="AK1"/>
-      <c r="AL1"/>
-    </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -762,8 +746,8 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -784,9 +768,8 @@
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AL2"/>
-    </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -806,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>16</v>
@@ -838,14 +821,12 @@
       <c r="Q3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="R3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
@@ -862,9 +843,8 @@
       <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3"/>
-      <c r="AL3"/>
-    </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -882,8 +862,8 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -904,14 +884,13 @@
       <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4"/>
-      <c r="AL4"/>
-    </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -934,12 +913,12 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
-      <c r="R5"/>
-      <c r="S5" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5"/>
+      <c r="R5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
@@ -958,9 +937,8 @@
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
-      <c r="AL5"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
@@ -973,11 +951,11 @@
       <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>20003</v>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -986,127 +964,117 @@
         <v>35</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="5">
+        <v>40</v>
+      </c>
+      <c r="R6" s="5">
         <v>2</v>
       </c>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>20003</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="R7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="J13" s="3"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="I13" s="3"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="J14" s="3"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="I14" s="3"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Luban/Config/Datas/weapons.xlsx
+++ b/Luban/Config/Datas/weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D997F-222B-4263-8255-DE20A135C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00DB0B7-E5DD-4D5A-9AA4-F311B3252754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>LS_Death_L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量(g)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -650,10 +666,9 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="18" max="18" width="11.73046875" customWidth="1"/>
     <col min="19" max="19" width="14.53125" customWidth="1"/>
-    <col min="20" max="20" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -708,8 +723,12 @@
       <c r="R1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="S1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -724,11 +743,8 @@
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-    </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -765,11 +781,8 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -824,8 +837,12 @@
       <c r="R3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -840,11 +857,8 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-    </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -881,11 +895,8 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-    </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -918,8 +929,12 @@
       <c r="R5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="S5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -934,11 +949,8 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
@@ -990,10 +1002,14 @@
       <c r="R6" s="5">
         <v>2</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S6" s="5">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1041,38 +1057,44 @@
       <c r="R7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S7">
+        <v>60</v>
+      </c>
+      <c r="T7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="I13" s="3"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="I14" s="3"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
